--- a/data/pca/factorExposure/factorExposure_2018-04-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.008987166857436878</v>
+        <v>0.01859389037995163</v>
       </c>
       <c r="C2">
-        <v>-0.02445735046427498</v>
+        <v>-0.01803577301178712</v>
       </c>
       <c r="D2">
-        <v>-0.04085275005734079</v>
+        <v>-0.03101625509181133</v>
       </c>
       <c r="E2">
-        <v>-0.01524263914732615</v>
+        <v>-0.01877185985991584</v>
       </c>
       <c r="F2">
-        <v>0.1064280659476002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.006133742610849685</v>
+      </c>
+      <c r="G2">
+        <v>0.03831572967056773</v>
+      </c>
+      <c r="H2">
+        <v>0.04774603526133159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09032804064758759</v>
+        <v>0.07142212066650484</v>
       </c>
       <c r="C3">
-        <v>-0.04128319856363343</v>
+        <v>0.0115347522903166</v>
       </c>
       <c r="D3">
-        <v>-0.0496913696085195</v>
+        <v>-0.08024890106346338</v>
       </c>
       <c r="E3">
-        <v>0.02338660699320064</v>
+        <v>-0.005471120587465319</v>
       </c>
       <c r="F3">
-        <v>0.3638625213912063</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.007052730505855851</v>
+      </c>
+      <c r="G3">
+        <v>0.1599311640030942</v>
+      </c>
+      <c r="H3">
+        <v>0.1271312111985467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04499558406299089</v>
+        <v>0.03865222286098135</v>
       </c>
       <c r="C4">
-        <v>-0.01292002130564553</v>
+        <v>-0.005890720139148331</v>
       </c>
       <c r="D4">
-        <v>-0.03120813171460521</v>
+        <v>-0.06470027237301373</v>
       </c>
       <c r="E4">
-        <v>-0.04187312829296521</v>
+        <v>0.01705742696624356</v>
       </c>
       <c r="F4">
-        <v>0.0617023643161901</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.04242808837448688</v>
+      </c>
+      <c r="G4">
+        <v>0.038521666980986</v>
+      </c>
+      <c r="H4">
+        <v>0.05793264884326917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03437401852178679</v>
+        <v>0.02370397756311665</v>
       </c>
       <c r="C6">
-        <v>-0.01163477765905249</v>
+        <v>-0.001813366528503003</v>
       </c>
       <c r="D6">
-        <v>-0.02438095195369052</v>
+        <v>-0.06378804016628344</v>
       </c>
       <c r="E6">
-        <v>-0.02389951105490507</v>
+        <v>0.006187631731056495</v>
       </c>
       <c r="F6">
-        <v>0.007561824516128869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.03195430747545729</v>
+      </c>
+      <c r="G6">
+        <v>0.01115163907598832</v>
+      </c>
+      <c r="H6">
+        <v>0.06443670374973813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03609500934785041</v>
+        <v>0.01164413764274936</v>
       </c>
       <c r="C7">
-        <v>0.02940920181818808</v>
+        <v>-0.004143598684687015</v>
       </c>
       <c r="D7">
-        <v>-0.03315783810418895</v>
+        <v>-0.03641177489627166</v>
       </c>
       <c r="E7">
-        <v>-0.02722228310982974</v>
+        <v>0.04359179174305444</v>
       </c>
       <c r="F7">
-        <v>0.03934507774793325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0009355535098813558</v>
+      </c>
+      <c r="G7">
+        <v>0.0212687886503069</v>
+      </c>
+      <c r="H7">
+        <v>0.03904224776449008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01883345343018437</v>
+        <v>0.003630058656566334</v>
       </c>
       <c r="C8">
-        <v>-0.003035208018253463</v>
+        <v>0.001697199895439338</v>
       </c>
       <c r="D8">
-        <v>-0.04022909361274544</v>
+        <v>-0.01520331676512827</v>
       </c>
       <c r="E8">
-        <v>-0.03350462210023122</v>
+        <v>0.009890154134224442</v>
       </c>
       <c r="F8">
-        <v>0.06599332259567754</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.01582752427890014</v>
+      </c>
+      <c r="G8">
+        <v>0.03595366417825203</v>
+      </c>
+      <c r="H8">
+        <v>0.03700513353890238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03287054872594374</v>
+        <v>0.03035721494976189</v>
       </c>
       <c r="C9">
-        <v>-0.009280097768275342</v>
+        <v>-0.002305534711806567</v>
       </c>
       <c r="D9">
-        <v>-0.03813155631049225</v>
+        <v>-0.04715696667161585</v>
       </c>
       <c r="E9">
-        <v>-0.03058529456931263</v>
+        <v>0.006256885548914895</v>
       </c>
       <c r="F9">
-        <v>0.07989398405419572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01866740020293306</v>
+      </c>
+      <c r="G9">
+        <v>0.04106143645364695</v>
+      </c>
+      <c r="H9">
+        <v>0.05863777649555028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04014010846307734</v>
+        <v>0.1289842736745054</v>
       </c>
       <c r="C10">
-        <v>-0.0007255722161677322</v>
+        <v>0.006457109750061014</v>
       </c>
       <c r="D10">
-        <v>0.1283917804010233</v>
+        <v>0.1565128761606684</v>
       </c>
       <c r="E10">
-        <v>0.0881007862799493</v>
+        <v>-0.0001880065292266802</v>
       </c>
       <c r="F10">
-        <v>0.06915873152804024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.03620419240790025</v>
+      </c>
+      <c r="G10">
+        <v>0.03276945083834373</v>
+      </c>
+      <c r="H10">
+        <v>-0.001142205814147178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02941275386972475</v>
+        <v>0.01686863591634427</v>
       </c>
       <c r="C11">
-        <v>-0.01888941122832011</v>
+        <v>0.009320605025006718</v>
       </c>
       <c r="D11">
-        <v>-0.03388289579540931</v>
+        <v>-0.05011473965477208</v>
       </c>
       <c r="E11">
-        <v>-0.02840048283448799</v>
+        <v>-0.001104273210875024</v>
       </c>
       <c r="F11">
-        <v>0.0273659052638742</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.01180972729909318</v>
+      </c>
+      <c r="G11">
+        <v>0.02210755332113304</v>
+      </c>
+      <c r="H11">
+        <v>0.05046391403245931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04034588566612281</v>
+        <v>0.02069538388834742</v>
       </c>
       <c r="C12">
-        <v>-0.01748514088277072</v>
+        <v>0.005472943037858594</v>
       </c>
       <c r="D12">
-        <v>-0.02587243809067804</v>
+        <v>-0.04850406227219666</v>
       </c>
       <c r="E12">
-        <v>-0.03469695436269179</v>
+        <v>0.01126197345922982</v>
       </c>
       <c r="F12">
-        <v>0.0031137672484907</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01340959852584525</v>
+      </c>
+      <c r="G12">
+        <v>0.00440187339447008</v>
+      </c>
+      <c r="H12">
+        <v>0.02115988980503553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0104019328171984</v>
+        <v>0.02410242020009187</v>
       </c>
       <c r="C13">
-        <v>-0.02027706331085818</v>
+        <v>-0.0142917848787974</v>
       </c>
       <c r="D13">
-        <v>-0.01721053473171288</v>
+        <v>-0.0254934958943641</v>
       </c>
       <c r="E13">
-        <v>-0.01662045808312253</v>
+        <v>-0.01191938109708294</v>
       </c>
       <c r="F13">
-        <v>0.07669879576855283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02211820046641463</v>
+      </c>
+      <c r="G13">
+        <v>0.05687096003490857</v>
+      </c>
+      <c r="H13">
+        <v>0.0794997189034104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02120571147922403</v>
+        <v>0.0136302888171343</v>
       </c>
       <c r="C14">
-        <v>0.002537056442230442</v>
+        <v>-0.001674342953338</v>
       </c>
       <c r="D14">
-        <v>-0.02186548648063448</v>
+        <v>-0.01822965528184005</v>
       </c>
       <c r="E14">
-        <v>-0.02881104031568999</v>
+        <v>0.0144743774851346</v>
       </c>
       <c r="F14">
-        <v>0.05021881229157896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01194197764187889</v>
+      </c>
+      <c r="G14">
+        <v>0.03969496843119744</v>
+      </c>
+      <c r="H14">
+        <v>0.01299210202271099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02919002944340326</v>
+        <v>0.01917034444169492</v>
       </c>
       <c r="C16">
-        <v>-0.01809206044632567</v>
+        <v>0.008977505281319404</v>
       </c>
       <c r="D16">
-        <v>-0.03732033035342869</v>
+        <v>-0.04198342387802976</v>
       </c>
       <c r="E16">
-        <v>-0.0321887694815183</v>
+        <v>0.002743321533686855</v>
       </c>
       <c r="F16">
-        <v>0.02708789205353995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01403574902576482</v>
+      </c>
+      <c r="G16">
+        <v>0.01863171114331359</v>
+      </c>
+      <c r="H16">
+        <v>0.03818187201433977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03343711368220184</v>
+        <v>0.02150020836819742</v>
       </c>
       <c r="C19">
-        <v>-0.01575533036965461</v>
+        <v>-0.001912813845186747</v>
       </c>
       <c r="D19">
-        <v>-0.0350842587833478</v>
+        <v>-0.04687501061785587</v>
       </c>
       <c r="E19">
-        <v>-0.03931714776050656</v>
+        <v>0.01059563061617132</v>
       </c>
       <c r="F19">
-        <v>0.08327619010113665</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02525174074134878</v>
+      </c>
+      <c r="G19">
+        <v>0.05466931915903926</v>
+      </c>
+      <c r="H19">
+        <v>0.05687375945460053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00154933874168034</v>
+        <v>0.006863653270076714</v>
       </c>
       <c r="C20">
-        <v>0.006197546736824617</v>
+        <v>-0.005999977260737896</v>
       </c>
       <c r="D20">
-        <v>-0.01205517252326004</v>
+        <v>-0.02297281254169096</v>
       </c>
       <c r="E20">
-        <v>-0.02222746570377278</v>
+        <v>0.004714603103915426</v>
       </c>
       <c r="F20">
-        <v>0.06231620417055259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01313841094253263</v>
+      </c>
+      <c r="G20">
+        <v>0.0511266916320075</v>
+      </c>
+      <c r="H20">
+        <v>0.02925473671223136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01455287625762356</v>
+        <v>0.01170256882869818</v>
       </c>
       <c r="C21">
-        <v>0.01642437721053767</v>
+        <v>-0.007421386342808227</v>
       </c>
       <c r="D21">
-        <v>-0.03930548673449142</v>
+        <v>-0.02749991308124407</v>
       </c>
       <c r="E21">
-        <v>-0.01580775381365477</v>
+        <v>0.01789513012698946</v>
       </c>
       <c r="F21">
-        <v>0.02653050855629907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.004967686127956803</v>
+      </c>
+      <c r="G21">
+        <v>0.04496964541103519</v>
+      </c>
+      <c r="H21">
+        <v>0.04213834483968381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02697942325446345</v>
+        <v>0.01437814176776642</v>
       </c>
       <c r="C24">
-        <v>-0.01622649527140808</v>
+        <v>0.00362749314962126</v>
       </c>
       <c r="D24">
-        <v>-0.01887002740187209</v>
+        <v>-0.04418151348456256</v>
       </c>
       <c r="E24">
-        <v>-0.02327075633792474</v>
+        <v>0.001307293145344394</v>
       </c>
       <c r="F24">
-        <v>0.03188659867336771</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.0101795194657639</v>
+      </c>
+      <c r="G24">
+        <v>0.01367470188920498</v>
+      </c>
+      <c r="H24">
+        <v>0.04682039529646918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03097244991439827</v>
+        <v>0.02628107698850662</v>
       </c>
       <c r="C25">
-        <v>-0.01474452926417291</v>
+        <v>0.001205801442235157</v>
       </c>
       <c r="D25">
-        <v>-0.03367463740695721</v>
+        <v>-0.04774817606500877</v>
       </c>
       <c r="E25">
-        <v>-0.02507097345744891</v>
+        <v>0.006899220691530745</v>
       </c>
       <c r="F25">
-        <v>0.03288186405435067</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01801882731918395</v>
+      </c>
+      <c r="G25">
+        <v>0.01782883912458226</v>
+      </c>
+      <c r="H25">
+        <v>0.04450279762228308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.018795277951052</v>
+        <v>0.01420108328823494</v>
       </c>
       <c r="C26">
-        <v>-0.009575717992716237</v>
+        <v>-0.01927765557849695</v>
       </c>
       <c r="D26">
-        <v>-0.02532911854576963</v>
+        <v>-0.01089810231326921</v>
       </c>
       <c r="E26">
-        <v>-0.003960449941406444</v>
+        <v>0.001600613447380352</v>
       </c>
       <c r="F26">
-        <v>0.05453567734046184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.001242984455592603</v>
+      </c>
+      <c r="G26">
+        <v>0.02722772905429247</v>
+      </c>
+      <c r="H26">
+        <v>0.02473175280195809</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.04211276243986913</v>
+        <v>0.01678724914641078</v>
       </c>
       <c r="C27">
-        <v>-0.02049848246573544</v>
+        <v>0.005921733448935879</v>
       </c>
       <c r="D27">
-        <v>-0.002372543103853001</v>
+        <v>-0.01550737641067511</v>
       </c>
       <c r="E27">
-        <v>-0.03321067103375657</v>
+        <v>0.004522386875201025</v>
       </c>
       <c r="F27">
-        <v>0.02011214521590337</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.008383551343816525</v>
+      </c>
+      <c r="G27">
+        <v>0.006354874250881917</v>
+      </c>
+      <c r="H27">
+        <v>0.0009463966540043136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06723757841865723</v>
+        <v>0.1765628123197094</v>
       </c>
       <c r="C28">
-        <v>-0.002516091590866718</v>
+        <v>-0.002722588777554977</v>
       </c>
       <c r="D28">
-        <v>0.1668356252627095</v>
+        <v>0.1969818108170881</v>
       </c>
       <c r="E28">
-        <v>0.1215541761422082</v>
+        <v>0.01057634324900284</v>
       </c>
       <c r="F28">
-        <v>0.06615589656041783</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.03445021068230494</v>
+      </c>
+      <c r="G28">
+        <v>0.02166503313567558</v>
+      </c>
+      <c r="H28">
+        <v>-0.009234465568028736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02325253922892464</v>
+        <v>0.01852875835259966</v>
       </c>
       <c r="C29">
-        <v>0.001263129458112368</v>
+        <v>-0.0002620636272447472</v>
       </c>
       <c r="D29">
-        <v>-0.02439622019317448</v>
+        <v>-0.01868511787802589</v>
       </c>
       <c r="E29">
-        <v>-0.03073104491873274</v>
+        <v>0.01363937229440783</v>
       </c>
       <c r="F29">
-        <v>0.0472846540532705</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.01280364528243183</v>
+      </c>
+      <c r="G29">
+        <v>0.03908569361642669</v>
+      </c>
+      <c r="H29">
+        <v>0.008660311909229517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.05424231718049836</v>
+        <v>0.03981641908854427</v>
       </c>
       <c r="C30">
-        <v>-0.06914446836499735</v>
+        <v>-0.004767976211604342</v>
       </c>
       <c r="D30">
-        <v>-0.0501743132890496</v>
+        <v>-0.09458290951001079</v>
       </c>
       <c r="E30">
-        <v>-0.05476135699654004</v>
+        <v>-0.02955287879871338</v>
       </c>
       <c r="F30">
-        <v>0.08180769511758575</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04569879784825689</v>
+      </c>
+      <c r="G30">
+        <v>0.05315917944114488</v>
+      </c>
+      <c r="H30">
+        <v>0.07455866716958405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05686140634321297</v>
+        <v>0.04668716514662515</v>
       </c>
       <c r="C31">
-        <v>-0.03493846261778931</v>
+        <v>0.008609657924248944</v>
       </c>
       <c r="D31">
-        <v>-0.01901000346227537</v>
+        <v>-0.03204480168574654</v>
       </c>
       <c r="E31">
-        <v>-0.02486988511767605</v>
+        <v>-0.002121883048519236</v>
       </c>
       <c r="F31">
-        <v>0.03331970255651445</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.003980968529900222</v>
+      </c>
+      <c r="G31">
+        <v>0.01801846390949174</v>
+      </c>
+      <c r="H31">
+        <v>0.004354402726178457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02463654651051081</v>
+        <v>0.01174666850162771</v>
       </c>
       <c r="C32">
-        <v>0.01277365309301456</v>
+        <v>0.0133287298465301</v>
       </c>
       <c r="D32">
-        <v>-0.05492962023518019</v>
+        <v>-0.01428702890244064</v>
       </c>
       <c r="E32">
-        <v>-0.05054853987074</v>
+        <v>0.03049261197001793</v>
       </c>
       <c r="F32">
-        <v>0.04329873549386708</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.03625540313893332</v>
+      </c>
+      <c r="G32">
+        <v>0.03768752407468878</v>
+      </c>
+      <c r="H32">
+        <v>0.05107984973320037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03377300744922883</v>
+        <v>0.02724848782264202</v>
       </c>
       <c r="C33">
-        <v>-0.0414844008080973</v>
+        <v>-0.001032765736695767</v>
       </c>
       <c r="D33">
-        <v>-0.05461686124350577</v>
+        <v>-0.04759920850639485</v>
       </c>
       <c r="E33">
-        <v>-0.01706393241509822</v>
+        <v>-0.0192031954782423</v>
       </c>
       <c r="F33">
-        <v>0.05910345431098622</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>5.912197750739102e-05</v>
+      </c>
+      <c r="G33">
+        <v>0.04231515907508845</v>
+      </c>
+      <c r="H33">
+        <v>0.05506624849043262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0336085170704918</v>
+        <v>0.02401071044864342</v>
       </c>
       <c r="C34">
-        <v>-0.01034079848971838</v>
+        <v>0.01726901923945756</v>
       </c>
       <c r="D34">
-        <v>-0.03315872857664247</v>
+        <v>-0.04630949309151803</v>
       </c>
       <c r="E34">
-        <v>-0.0411795405374985</v>
+        <v>0.01370527926776493</v>
       </c>
       <c r="F34">
-        <v>0.03230453342185024</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01738567383535456</v>
+      </c>
+      <c r="G34">
+        <v>0.01179102659927847</v>
+      </c>
+      <c r="H34">
+        <v>0.03625498959152641</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01701052390797943</v>
+        <v>0.01669754195511834</v>
       </c>
       <c r="C36">
-        <v>0.000878227034333902</v>
+        <v>-0.006787700449872274</v>
       </c>
       <c r="D36">
-        <v>-0.01586808503213173</v>
+        <v>-0.006786579536285455</v>
       </c>
       <c r="E36">
-        <v>-0.01400377976522072</v>
+        <v>0.008253391526108706</v>
       </c>
       <c r="F36">
-        <v>0.02643200373557831</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.001148743168751185</v>
+      </c>
+      <c r="G36">
+        <v>0.01849342964291191</v>
+      </c>
+      <c r="H36">
+        <v>0.01910123209046492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.008797789742089975</v>
+        <v>0.02822384427159862</v>
       </c>
       <c r="C38">
-        <v>-0.004881804841983392</v>
+        <v>0.01524226361878858</v>
       </c>
       <c r="D38">
-        <v>-0.005316376225173891</v>
+        <v>-0.01432207060832905</v>
       </c>
       <c r="E38">
-        <v>0.02013988160781301</v>
+        <v>0.001074585473841037</v>
       </c>
       <c r="F38">
-        <v>0.04212167014433882</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01000641089005394</v>
+      </c>
+      <c r="G38">
+        <v>0.01876228998097632</v>
+      </c>
+      <c r="H38">
+        <v>0.04303441758914889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02735852457416133</v>
+        <v>0.009305305252827877</v>
       </c>
       <c r="C39">
-        <v>-0.01825711392060132</v>
+        <v>0.004904099948411059</v>
       </c>
       <c r="D39">
-        <v>-0.05654133625977312</v>
+        <v>-0.08906199567265101</v>
       </c>
       <c r="E39">
-        <v>-0.03716686588793656</v>
+        <v>-0.006093959527699365</v>
       </c>
       <c r="F39">
-        <v>0.04424150550227945</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01710677685126846</v>
+      </c>
+      <c r="G39">
+        <v>0.03312708503735279</v>
+      </c>
+      <c r="H39">
+        <v>0.07929543638976057</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02065224012171748</v>
+        <v>0.02643557474137296</v>
       </c>
       <c r="C40">
-        <v>-0.04782573347027929</v>
+        <v>-0.0005618303799429402</v>
       </c>
       <c r="D40">
-        <v>-0.01848791263104594</v>
+        <v>-0.03552971425263354</v>
       </c>
       <c r="E40">
-        <v>-0.03685577961035454</v>
+        <v>-0.02293478961021257</v>
       </c>
       <c r="F40">
-        <v>0.05070303495916013</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03485717593304297</v>
+      </c>
+      <c r="G40">
+        <v>0.01727352869482075</v>
+      </c>
+      <c r="H40">
+        <v>0.06756538616132431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004857252083006467</v>
+        <v>0.01408183994498262</v>
       </c>
       <c r="C41">
-        <v>0.0009674220700931109</v>
+        <v>-0.002439233840761298</v>
       </c>
       <c r="D41">
-        <v>-0.01379182713735196</v>
+        <v>0.01160843538712309</v>
       </c>
       <c r="E41">
-        <v>0.005129431916487853</v>
+        <v>0.003599713600042682</v>
       </c>
       <c r="F41">
-        <v>0.00431374099819164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.006038869540780974</v>
+      </c>
+      <c r="G41">
+        <v>-0.0009162293818075946</v>
+      </c>
+      <c r="H41">
+        <v>-0.0003699665175207199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.243950161444539</v>
+        <v>0.1324581509897715</v>
       </c>
       <c r="C42">
-        <v>-0.197710097273675</v>
+        <v>-0.08061806138462546</v>
       </c>
       <c r="D42">
-        <v>-0.4317053593622368</v>
+        <v>-0.2390956894847067</v>
       </c>
       <c r="E42">
-        <v>0.7698920709733764</v>
+        <v>-0.233683975377134</v>
       </c>
       <c r="F42">
-        <v>-0.268316230392934</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.8858292329242831</v>
+      </c>
+      <c r="G42">
+        <v>-0.2421250498705188</v>
+      </c>
+      <c r="H42">
+        <v>0.02707897160003304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003915499097623609</v>
+        <v>0.0148099733050035</v>
       </c>
       <c r="C43">
-        <v>-0.002448265255268817</v>
+        <v>-0.002642836134994437</v>
       </c>
       <c r="D43">
-        <v>-0.01471378270816845</v>
+        <v>0.007732597424952133</v>
       </c>
       <c r="E43">
-        <v>8.976569854080732e-06</v>
+        <v>0.0001609577950394518</v>
       </c>
       <c r="F43">
-        <v>0.02330285307352633</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.003745496853759945</v>
+      </c>
+      <c r="G43">
+        <v>0.0002527820068887782</v>
+      </c>
+      <c r="H43">
+        <v>0.006625422732084749</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02435867618522796</v>
+        <v>0.0146032750072122</v>
       </c>
       <c r="C44">
-        <v>0.004338402815087013</v>
+        <v>0.004614836832977367</v>
       </c>
       <c r="D44">
-        <v>-0.04194474270966051</v>
+        <v>-0.0436216107608838</v>
       </c>
       <c r="E44">
-        <v>-0.01364649020021948</v>
+        <v>0.01431519575758147</v>
       </c>
       <c r="F44">
-        <v>0.09476056893649235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.00102011982156786</v>
+      </c>
+      <c r="G44">
+        <v>0.0410615047074939</v>
+      </c>
+      <c r="H44">
+        <v>0.0595975858268924</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02210901681738185</v>
+        <v>0.0110203447118936</v>
       </c>
       <c r="C46">
-        <v>-0.01036736527109267</v>
+        <v>-0.006044387503099347</v>
       </c>
       <c r="D46">
-        <v>-0.04451877779194174</v>
+        <v>-0.01692018575643938</v>
       </c>
       <c r="E46">
-        <v>-0.02817367564364365</v>
+        <v>0.002132964543128182</v>
       </c>
       <c r="F46">
-        <v>0.05720441916069695</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.006889153798019568</v>
+      </c>
+      <c r="G46">
+        <v>0.04255272045562634</v>
+      </c>
+      <c r="H46">
+        <v>0.01001764939072093</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08526322356574431</v>
+        <v>0.06439507899071298</v>
       </c>
       <c r="C47">
-        <v>-0.04523102478406132</v>
+        <v>0.02320928683904059</v>
       </c>
       <c r="D47">
-        <v>-0.0113426496447773</v>
+        <v>-0.05967222440470851</v>
       </c>
       <c r="E47">
-        <v>-0.0343391792812825</v>
+        <v>0.006025607964376324</v>
       </c>
       <c r="F47">
-        <v>0.008925425285127421</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01024845253014358</v>
+      </c>
+      <c r="G47">
+        <v>-0.007109201249116186</v>
+      </c>
+      <c r="H47">
+        <v>-0.02556976601670116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01873533302592306</v>
+        <v>0.01837198713236733</v>
       </c>
       <c r="C48">
-        <v>-0.01033189301849972</v>
+        <v>0.004274496918550355</v>
       </c>
       <c r="D48">
-        <v>-0.02213708452921528</v>
+        <v>-0.01534083323028091</v>
       </c>
       <c r="E48">
-        <v>-0.01541627482230369</v>
+        <v>0.001382043126870504</v>
       </c>
       <c r="F48">
-        <v>0.03246322242230049</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.006008219007774684</v>
+      </c>
+      <c r="G48">
+        <v>0.01908993986008062</v>
+      </c>
+      <c r="H48">
+        <v>0.02121611983114434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08676068196253199</v>
+        <v>0.067269823476413</v>
       </c>
       <c r="C50">
-        <v>-0.02888951834788324</v>
+        <v>0.02123665751166308</v>
       </c>
       <c r="D50">
-        <v>-0.03473571656461087</v>
+        <v>-0.05679002055615109</v>
       </c>
       <c r="E50">
-        <v>-0.0315545634600805</v>
+        <v>0.01744069313805687</v>
       </c>
       <c r="F50">
-        <v>0.02036721261155074</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.005470378091230758</v>
+      </c>
+      <c r="G50">
+        <v>0.00336842383997495</v>
+      </c>
+      <c r="H50">
+        <v>-0.01268128477897045</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02039642122539814</v>
+        <v>0.01629346054006918</v>
       </c>
       <c r="C51">
-        <v>-0.004051507768614856</v>
+        <v>-0.00193229476819461</v>
       </c>
       <c r="D51">
-        <v>-0.001733807764615441</v>
+        <v>-0.01181046077576233</v>
       </c>
       <c r="E51">
-        <v>-0.001060523883300925</v>
+        <v>0.008815327243438373</v>
       </c>
       <c r="F51">
-        <v>0.08675975454638582</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.002512945455258581</v>
+      </c>
+      <c r="G51">
+        <v>0.03464654701625326</v>
+      </c>
+      <c r="H51">
+        <v>0.04622284542754759</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09258000456460143</v>
+        <v>0.07997513423806853</v>
       </c>
       <c r="C53">
-        <v>-0.04845705245365741</v>
+        <v>0.02980172128919619</v>
       </c>
       <c r="D53">
-        <v>-0.0220110229683203</v>
+        <v>-0.09549862499150523</v>
       </c>
       <c r="E53">
-        <v>-0.04686979688985941</v>
+        <v>0.01097212036675694</v>
       </c>
       <c r="F53">
-        <v>-0.03822277504216508</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02831173722358788</v>
+      </c>
+      <c r="G53">
+        <v>-0.03596493969329121</v>
+      </c>
+      <c r="H53">
+        <v>-0.02685635409608942</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02124356761740566</v>
+        <v>0.02789291309589904</v>
       </c>
       <c r="C54">
-        <v>0.0004644376030942517</v>
+        <v>0.007468184207091957</v>
       </c>
       <c r="D54">
-        <v>-0.01222813869474382</v>
+        <v>0.008076399318920294</v>
       </c>
       <c r="E54">
-        <v>-0.02167242924079858</v>
+        <v>0.00722684521010981</v>
       </c>
       <c r="F54">
-        <v>0.03138122187156955</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.001969611280359257</v>
+      </c>
+      <c r="G54">
+        <v>0.0367042975018614</v>
+      </c>
+      <c r="H54">
+        <v>0.004588693313470239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08864250403395769</v>
+        <v>0.0641163936862021</v>
       </c>
       <c r="C55">
-        <v>-0.0427762293943144</v>
+        <v>0.0263467072305515</v>
       </c>
       <c r="D55">
-        <v>-0.03392560285655671</v>
+        <v>-0.0880263502003769</v>
       </c>
       <c r="E55">
-        <v>-0.0448725479408633</v>
+        <v>0.01039895401171346</v>
       </c>
       <c r="F55">
-        <v>-0.03949790671182823</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01973366880323751</v>
+      </c>
+      <c r="G55">
+        <v>-0.01722455311357782</v>
+      </c>
+      <c r="H55">
+        <v>-0.03616871447007734</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1307657243824036</v>
+        <v>0.1088241382378187</v>
       </c>
       <c r="C56">
-        <v>-0.07315808699856276</v>
+        <v>0.04486452487596064</v>
       </c>
       <c r="D56">
-        <v>0.003290889376729127</v>
+        <v>-0.1180169926829001</v>
       </c>
       <c r="E56">
-        <v>-0.08433335250369846</v>
+        <v>0.01031188615218725</v>
       </c>
       <c r="F56">
-        <v>-0.07414522109901064</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.05162043474389684</v>
+      </c>
+      <c r="G56">
+        <v>-0.06696617915553107</v>
+      </c>
+      <c r="H56">
+        <v>-0.06305894966657354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04059870470661418</v>
+        <v>0.03048344739499791</v>
       </c>
       <c r="C57">
-        <v>-0.03206544183672159</v>
+        <v>-0.01404098424643864</v>
       </c>
       <c r="D57">
-        <v>-0.02606846840972652</v>
+        <v>-0.03754287283781851</v>
       </c>
       <c r="E57">
-        <v>0.002702085675199799</v>
+        <v>-0.00947322522130553</v>
       </c>
       <c r="F57">
-        <v>0.04942504591752651</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.003169760099388841</v>
+      </c>
+      <c r="G57">
+        <v>0.06667061343413515</v>
+      </c>
+      <c r="H57">
+        <v>0.05226450977891672</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1575825680057141</v>
+        <v>0.1238084662991028</v>
       </c>
       <c r="C58">
-        <v>-0.1956329074816826</v>
+        <v>0.03780475753855746</v>
       </c>
       <c r="D58">
-        <v>-0.2038235091394637</v>
+        <v>-0.1806534828110566</v>
       </c>
       <c r="E58">
-        <v>-0.0666521508703886</v>
+        <v>-0.2644760600795175</v>
       </c>
       <c r="F58">
-        <v>0.51038501443253</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.1052050205765797</v>
+      </c>
+      <c r="G58">
+        <v>0.8095490633312808</v>
+      </c>
+      <c r="H58">
+        <v>-0.3712750157565747</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05448837051380295</v>
+        <v>0.1901627137181952</v>
       </c>
       <c r="C59">
-        <v>-0.0253488670458496</v>
+        <v>0.005961584681580834</v>
       </c>
       <c r="D59">
-        <v>0.1648997792699612</v>
+        <v>0.1948108097904221</v>
       </c>
       <c r="E59">
-        <v>0.08252391851324577</v>
+        <v>-0.00778795666512307</v>
       </c>
       <c r="F59">
-        <v>0.09079852905046079</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.001846204126834574</v>
+      </c>
+      <c r="G59">
+        <v>0.02075499443293443</v>
+      </c>
+      <c r="H59">
+        <v>0.0251749205511211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1383516114539909</v>
+        <v>0.2033934035539666</v>
       </c>
       <c r="C60">
-        <v>-0.106524457727512</v>
+        <v>0.02360141654955035</v>
       </c>
       <c r="D60">
-        <v>-0.008797579337009634</v>
+        <v>-0.04332957918861043</v>
       </c>
       <c r="E60">
-        <v>0.02447492180711158</v>
+        <v>-0.05248905485047269</v>
       </c>
       <c r="F60">
-        <v>0.1636645306780501</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.06880569935291463</v>
+      </c>
+      <c r="G60">
+        <v>0.0271682248426482</v>
+      </c>
+      <c r="H60">
+        <v>0.3659546389691684</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02090683556603288</v>
+        <v>0.01582560309683644</v>
       </c>
       <c r="C61">
-        <v>-0.01021195616569035</v>
+        <v>0.008192553123176806</v>
       </c>
       <c r="D61">
-        <v>-0.0397309331267014</v>
+        <v>-0.05925712371325289</v>
       </c>
       <c r="E61">
-        <v>-0.02158025457125271</v>
+        <v>0.00261233568743448</v>
       </c>
       <c r="F61">
-        <v>0.01434749770070441</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02024529266887316</v>
+      </c>
+      <c r="G61">
+        <v>0.0236193974978295</v>
+      </c>
+      <c r="H61">
+        <v>0.05643678688242071</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01305511541586891</v>
+        <v>0.00921991664150189</v>
       </c>
       <c r="C63">
-        <v>-0.005321762024103988</v>
+        <v>-0.002601815202168838</v>
       </c>
       <c r="D63">
-        <v>-0.0310770609211945</v>
+        <v>-0.02461241507610304</v>
       </c>
       <c r="E63">
-        <v>-0.01770044687361665</v>
+        <v>0.007274486384704747</v>
       </c>
       <c r="F63">
-        <v>0.008980295450147483</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.009694183445557286</v>
+      </c>
+      <c r="G63">
+        <v>0.01420521131090917</v>
+      </c>
+      <c r="H63">
+        <v>0.01536382426262755</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03499255272460591</v>
+        <v>0.03703255737360602</v>
       </c>
       <c r="C64">
-        <v>-0.001474279799307455</v>
+        <v>0.007093641722282308</v>
       </c>
       <c r="D64">
-        <v>-0.03204846042347539</v>
+        <v>-0.03996360120113661</v>
       </c>
       <c r="E64">
-        <v>-0.03109247440623147</v>
+        <v>0.01472977247501333</v>
       </c>
       <c r="F64">
-        <v>0.02268603001776135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.003716340737317679</v>
+      </c>
+      <c r="G64">
+        <v>-0.006120521277538192</v>
+      </c>
+      <c r="H64">
+        <v>0.04918360070383399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03798276326732356</v>
+        <v>0.03868520067631639</v>
       </c>
       <c r="C65">
-        <v>-0.01275563558191341</v>
+        <v>0.0005217886651746363</v>
       </c>
       <c r="D65">
-        <v>-0.02381370853824768</v>
+        <v>-0.07385537459940637</v>
       </c>
       <c r="E65">
-        <v>-0.02549911754137215</v>
+        <v>0.007998782534253488</v>
       </c>
       <c r="F65">
-        <v>0.001162154288318519</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04117470309192591</v>
+      </c>
+      <c r="G65">
+        <v>-0.002474004497978883</v>
+      </c>
+      <c r="H65">
+        <v>0.07298892859549576</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03328389521264929</v>
+        <v>0.01795032785109128</v>
       </c>
       <c r="C66">
-        <v>-0.0289491100601727</v>
+        <v>0.01168931847732922</v>
       </c>
       <c r="D66">
-        <v>-0.05564522767329001</v>
+        <v>-0.1124086279868695</v>
       </c>
       <c r="E66">
-        <v>-0.05818970799551539</v>
+        <v>-0.006499049927212484</v>
       </c>
       <c r="F66">
-        <v>0.02679065231611587</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03901117683490121</v>
+      </c>
+      <c r="G66">
+        <v>0.03010564809551737</v>
+      </c>
+      <c r="H66">
+        <v>0.08132445340307984</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01903263038156973</v>
+        <v>0.04840251783798041</v>
       </c>
       <c r="C67">
-        <v>-0.01384311804123745</v>
+        <v>0.01662863578296178</v>
       </c>
       <c r="D67">
-        <v>0.007365062260317265</v>
+        <v>-0.01886181025189756</v>
       </c>
       <c r="E67">
-        <v>0.01483685084158185</v>
+        <v>-0.0005026755991244163</v>
       </c>
       <c r="F67">
-        <v>0.02506925752959988</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.02035118044295262</v>
+      </c>
+      <c r="G67">
+        <v>0.009607132669066428</v>
+      </c>
+      <c r="H67">
+        <v>0.04030954703424852</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.0684336389379958</v>
+        <v>0.1896040425413216</v>
       </c>
       <c r="C68">
-        <v>-0.02163314827346131</v>
+        <v>-0.016969805575641</v>
       </c>
       <c r="D68">
-        <v>0.1784113100149345</v>
+        <v>0.2169963148001059</v>
       </c>
       <c r="E68">
-        <v>0.09148600088494206</v>
+        <v>-0.01025645819509453</v>
       </c>
       <c r="F68">
-        <v>0.08202095244652088</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.04126179288547598</v>
+      </c>
+      <c r="G68">
+        <v>0.03216087448061802</v>
+      </c>
+      <c r="H68">
+        <v>-0.05039011948378106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06163148869284656</v>
+        <v>0.05958571152437917</v>
       </c>
       <c r="C69">
-        <v>-0.03550962801671177</v>
+        <v>0.02550096716346558</v>
       </c>
       <c r="D69">
-        <v>-0.0109110330795994</v>
+        <v>-0.05181724834950797</v>
       </c>
       <c r="E69">
-        <v>-0.0431214631380831</v>
+        <v>0.005257706201084153</v>
       </c>
       <c r="F69">
-        <v>0.007414911451417412</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02806886511332579</v>
+      </c>
+      <c r="G69">
+        <v>-0.01039005097587247</v>
+      </c>
+      <c r="H69">
+        <v>0.009822368039149557</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07307156502177654</v>
+        <v>0.1720196992625621</v>
       </c>
       <c r="C71">
-        <v>-0.02738664458688589</v>
+        <v>-0.005549418089832518</v>
       </c>
       <c r="D71">
-        <v>0.1821834912288107</v>
+        <v>0.1746276998550299</v>
       </c>
       <c r="E71">
-        <v>0.1380043176204052</v>
+        <v>-0.01336773788861717</v>
       </c>
       <c r="F71">
-        <v>0.08793240359909116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.05035972083935088</v>
+      </c>
+      <c r="G71">
+        <v>0.03716711815683008</v>
+      </c>
+      <c r="H71">
+        <v>-0.0212531500991629</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1024662718035493</v>
+        <v>0.06824869575866493</v>
       </c>
       <c r="C72">
-        <v>-0.07032465034510137</v>
+        <v>0.03344143656220179</v>
       </c>
       <c r="D72">
-        <v>-0.02637124953765336</v>
+        <v>-0.08940595142814098</v>
       </c>
       <c r="E72">
-        <v>-0.07915265063698787</v>
+        <v>-0.01405409152726182</v>
       </c>
       <c r="F72">
-        <v>0.0732827263304375</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.06948523792267171</v>
+      </c>
+      <c r="G72">
+        <v>0.01667081218214419</v>
+      </c>
+      <c r="H72">
+        <v>0.1246901545019743</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.182126987508631</v>
+        <v>0.265589480483201</v>
       </c>
       <c r="C73">
-        <v>-0.1746557292008347</v>
+        <v>0.03440305301288125</v>
       </c>
       <c r="D73">
-        <v>0.01464703300034681</v>
+        <v>-0.1174521502106813</v>
       </c>
       <c r="E73">
-        <v>0.07517820668766852</v>
+        <v>-0.09347013497490754</v>
       </c>
       <c r="F73">
-        <v>0.2046330275045992</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.08246847037235318</v>
+      </c>
+      <c r="G73">
+        <v>0.03678524860391308</v>
+      </c>
+      <c r="H73">
+        <v>0.4655657648725528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1230179845118024</v>
+        <v>0.1097719149067868</v>
       </c>
       <c r="C74">
-        <v>-0.06921794502727584</v>
+        <v>0.04528845848253301</v>
       </c>
       <c r="D74">
-        <v>-0.00813677448293908</v>
+        <v>-0.12295803545757</v>
       </c>
       <c r="E74">
-        <v>-0.05287009480825745</v>
+        <v>0.01273145960489653</v>
       </c>
       <c r="F74">
-        <v>-0.07702572391142787</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.04083736926545797</v>
+      </c>
+      <c r="G74">
+        <v>-0.050864003272348</v>
+      </c>
+      <c r="H74">
+        <v>-0.0240217952301347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2130888601488378</v>
+        <v>0.2091121372660618</v>
       </c>
       <c r="C75">
-        <v>-0.1321461989274301</v>
+        <v>0.08278578630638833</v>
       </c>
       <c r="D75">
-        <v>0.03052485141132523</v>
+        <v>-0.1893973305712688</v>
       </c>
       <c r="E75">
-        <v>-0.1478737519581241</v>
+        <v>0.009241807677543016</v>
       </c>
       <c r="F75">
-        <v>-0.1117583176579863</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.09202584284185525</v>
+      </c>
+      <c r="G75">
+        <v>-0.1141686468828267</v>
+      </c>
+      <c r="H75">
+        <v>-0.1419757854410339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2584123969062936</v>
+        <v>0.1701865351346146</v>
       </c>
       <c r="C76">
-        <v>-0.1174125168199715</v>
+        <v>0.07616683664040583</v>
       </c>
       <c r="D76">
-        <v>0.02294684627857246</v>
+        <v>-0.1856731015343605</v>
       </c>
       <c r="E76">
-        <v>-0.1758480577595133</v>
+        <v>0.04647807690307609</v>
       </c>
       <c r="F76">
-        <v>-0.2037333139180515</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.08377989799361214</v>
+      </c>
+      <c r="G76">
+        <v>-0.1110301518943237</v>
+      </c>
+      <c r="H76">
+        <v>-0.1199679482442717</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1026146274129836</v>
+        <v>0.05984235348337089</v>
       </c>
       <c r="C77">
-        <v>-0.07049821498101488</v>
+        <v>0.007819545994574368</v>
       </c>
       <c r="D77">
-        <v>-0.1343915071582718</v>
+        <v>-0.08790102107485487</v>
       </c>
       <c r="E77">
-        <v>-0.008183413969705781</v>
+        <v>-0.01693019935497929</v>
       </c>
       <c r="F77">
-        <v>0.1318055820308693</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.02078339159205614</v>
+      </c>
+      <c r="G77">
+        <v>0.07484659160736179</v>
+      </c>
+      <c r="H77">
+        <v>0.02620635658984567</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06941943445897407</v>
+        <v>0.03352417069696256</v>
       </c>
       <c r="C78">
-        <v>-0.03172651431214606</v>
+        <v>0.01041878088913051</v>
       </c>
       <c r="D78">
-        <v>-0.09694908616384382</v>
+        <v>-0.07167853745151954</v>
       </c>
       <c r="E78">
-        <v>-0.04652425455457045</v>
+        <v>0.005407244701503523</v>
       </c>
       <c r="F78">
-        <v>0.07580120384890089</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01703341969914518</v>
+      </c>
+      <c r="G78">
+        <v>0.05996731026908101</v>
+      </c>
+      <c r="H78">
+        <v>0.09501606780482144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.5365229777943767</v>
+        <v>0.1160023613604399</v>
       </c>
       <c r="C80">
-        <v>0.8257036042356819</v>
+        <v>0.02346433426281444</v>
       </c>
       <c r="D80">
-        <v>-0.07514621016718809</v>
+        <v>-0.09580033433763933</v>
       </c>
       <c r="E80">
-        <v>0.02464562172912288</v>
+        <v>0.9155464074073171</v>
       </c>
       <c r="F80">
-        <v>0.04132391482587192</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.2597861233650368</v>
+      </c>
+      <c r="G80">
+        <v>0.1956358900210833</v>
+      </c>
+      <c r="H80">
+        <v>0.006687038037078991</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1681201579943347</v>
+        <v>0.138811119986336</v>
       </c>
       <c r="C81">
-        <v>-0.09138824771356738</v>
+        <v>0.05373599242306566</v>
       </c>
       <c r="D81">
-        <v>0.03098210159834181</v>
+        <v>-0.1244718253088241</v>
       </c>
       <c r="E81">
-        <v>-0.117864237190191</v>
+        <v>0.01640903520101148</v>
       </c>
       <c r="F81">
-        <v>-0.1151359946231115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.05926624085793988</v>
+      </c>
+      <c r="G81">
+        <v>-0.07281631714243221</v>
+      </c>
+      <c r="H81">
+        <v>-0.08094366090225927</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03247681628309657</v>
+        <v>0.03043128230612914</v>
       </c>
       <c r="C83">
-        <v>-0.02455466695730519</v>
+        <v>0.003935236874305634</v>
       </c>
       <c r="D83">
-        <v>-0.0337818354977602</v>
+        <v>-0.0281473209225126</v>
       </c>
       <c r="E83">
-        <v>0.00105429783083843</v>
+        <v>-0.006371574485416448</v>
       </c>
       <c r="F83">
-        <v>0.06091315409176465</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.004223872481303008</v>
+      </c>
+      <c r="G83">
+        <v>0.04057150462994408</v>
+      </c>
+      <c r="H83">
+        <v>0.04342752601642229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.23467371728238</v>
+        <v>0.1958215031730388</v>
       </c>
       <c r="C85">
-        <v>-0.1296265599951877</v>
+        <v>0.06777237155709123</v>
       </c>
       <c r="D85">
-        <v>0.01594942064316329</v>
+        <v>-0.1941936655180611</v>
       </c>
       <c r="E85">
-        <v>-0.1338249261752385</v>
+        <v>0.007598119005174426</v>
       </c>
       <c r="F85">
-        <v>-0.1496790687326455</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.07753704232872878</v>
+      </c>
+      <c r="G85">
+        <v>-0.1342597067642409</v>
+      </c>
+      <c r="H85">
+        <v>-0.07129187835330232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.007730698814005931</v>
+        <v>0.01905906976181055</v>
       </c>
       <c r="C86">
-        <v>0.003663767225026578</v>
+        <v>0.001252606603580535</v>
       </c>
       <c r="D86">
-        <v>-0.07256333112052617</v>
+        <v>-0.03883927516966496</v>
       </c>
       <c r="E86">
-        <v>-0.01437140335690227</v>
+        <v>0.008172221423826825</v>
       </c>
       <c r="F86">
-        <v>0.0516321478811166</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.008388268776690858</v>
+      </c>
+      <c r="G86">
+        <v>0.04096525598555417</v>
+      </c>
+      <c r="H86">
+        <v>0.09129678476171489</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0363326763784096</v>
+        <v>0.01787162261355235</v>
       </c>
       <c r="C87">
-        <v>-0.0187127502926143</v>
+        <v>0.001413804518874014</v>
       </c>
       <c r="D87">
-        <v>-0.03481728340444769</v>
+        <v>-0.04836395213637557</v>
       </c>
       <c r="E87">
-        <v>-0.009555411275645123</v>
+        <v>-0.002855026521090321</v>
       </c>
       <c r="F87">
-        <v>0.1050568939271583</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.005970453810838365</v>
+      </c>
+      <c r="G87">
+        <v>0.07828481481703821</v>
+      </c>
+      <c r="H87">
+        <v>0.08134855582088826</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.02016351269145176</v>
+        <v>0.04015199693741828</v>
       </c>
       <c r="C88">
-        <v>0.004082134788120544</v>
+        <v>-0.01254508926274046</v>
       </c>
       <c r="D88">
-        <v>0.008243823418850845</v>
+        <v>-0.0209937948317446</v>
       </c>
       <c r="E88">
-        <v>-0.01596250819835521</v>
+        <v>0.01886828124553227</v>
       </c>
       <c r="F88">
-        <v>-0.01646976218954412</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01537520947245353</v>
+      </c>
+      <c r="G88">
+        <v>-0.005477509738267348</v>
+      </c>
+      <c r="H88">
+        <v>0.01309892858402861</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1029816258342426</v>
+        <v>0.2994941608572202</v>
       </c>
       <c r="C89">
-        <v>-0.04517495773098169</v>
+        <v>-0.01198777764479855</v>
       </c>
       <c r="D89">
-        <v>0.2999127130919529</v>
+        <v>0.3172891896732757</v>
       </c>
       <c r="E89">
-        <v>0.150668418264674</v>
+        <v>-0.01192303204187805</v>
       </c>
       <c r="F89">
-        <v>0.1140930456960631</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02074864634310666</v>
+      </c>
+      <c r="G89">
+        <v>-0.01790145432522743</v>
+      </c>
+      <c r="H89">
+        <v>0.01282993954123876</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08845445758226698</v>
+        <v>0.2440999842886998</v>
       </c>
       <c r="C90">
-        <v>-0.01522069752157522</v>
+        <v>-0.01147372927970882</v>
       </c>
       <c r="D90">
-        <v>0.3221604228216065</v>
+        <v>0.2851299175240755</v>
       </c>
       <c r="E90">
-        <v>0.1724254922466026</v>
+        <v>-0.003755320936552118</v>
       </c>
       <c r="F90">
-        <v>0.06287247411878508</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.05487601676132917</v>
+      </c>
+      <c r="G90">
+        <v>0.001510403212779525</v>
+      </c>
+      <c r="H90">
+        <v>-0.05590608521896217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2672603796907685</v>
+        <v>0.2097260811071154</v>
       </c>
       <c r="C91">
-        <v>-0.1697590227449082</v>
+        <v>0.07960000471654938</v>
       </c>
       <c r="D91">
-        <v>0.02004080946598705</v>
+        <v>-0.1771763981055619</v>
       </c>
       <c r="E91">
-        <v>-0.1324250836918524</v>
+        <v>-0.001988388801282157</v>
       </c>
       <c r="F91">
-        <v>-0.2408414972070981</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.07787561983262099</v>
+      </c>
+      <c r="G91">
+        <v>-0.1358835285105626</v>
+      </c>
+      <c r="H91">
+        <v>-0.1625717636927915</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1541641695935827</v>
+        <v>0.2747421747849795</v>
       </c>
       <c r="C92">
-        <v>-0.06273329947271866</v>
+        <v>0.04954834427027939</v>
       </c>
       <c r="D92">
-        <v>0.4329272710684891</v>
+        <v>0.2074575809394695</v>
       </c>
       <c r="E92">
-        <v>0.04390168960632282</v>
+        <v>0.007643122290673139</v>
       </c>
       <c r="F92">
-        <v>-0.02734423439782797</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.01560642128853694</v>
+      </c>
+      <c r="G92">
+        <v>0.01957837535058433</v>
+      </c>
+      <c r="H92">
+        <v>-0.1303509130374084</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08694724426814658</v>
+        <v>0.2738315237365092</v>
       </c>
       <c r="C93">
-        <v>-0.05249475900874841</v>
+        <v>-0.002200866673510296</v>
       </c>
       <c r="D93">
-        <v>0.3863588929128316</v>
+        <v>0.2943695029625331</v>
       </c>
       <c r="E93">
-        <v>0.2344107226412746</v>
+        <v>-0.03269276270458566</v>
       </c>
       <c r="F93">
-        <v>0.07526349484081135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.05211701217044698</v>
+      </c>
+      <c r="G93">
+        <v>-0.00706696050402137</v>
+      </c>
+      <c r="H93">
+        <v>0.006930116599924045</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2574561742835716</v>
+        <v>0.2538049918492777</v>
       </c>
       <c r="C94">
-        <v>-0.1727181594999711</v>
+        <v>0.07467896400098237</v>
       </c>
       <c r="D94">
-        <v>0.05458348510744153</v>
+        <v>-0.1912393760271622</v>
       </c>
       <c r="E94">
-        <v>-0.2238246334704784</v>
+        <v>-0.005779519695826263</v>
       </c>
       <c r="F94">
-        <v>-0.1832617199354609</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1840074650515445</v>
+      </c>
+      <c r="G94">
+        <v>-0.2342008309295747</v>
+      </c>
+      <c r="H94">
+        <v>-0.3690525382251987</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.02464568824840756</v>
+        <v>0.04450829530605566</v>
       </c>
       <c r="C95">
-        <v>-0.08688117595644414</v>
+        <v>0.02869127870909436</v>
       </c>
       <c r="D95">
-        <v>-0.05820848930824964</v>
+        <v>-0.09273145597776766</v>
       </c>
       <c r="E95">
-        <v>-0.01372782360039844</v>
+        <v>-0.08091083047627018</v>
       </c>
       <c r="F95">
-        <v>0.01979845860369214</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.005405925148549231</v>
+      </c>
+      <c r="G95">
+        <v>0.03519706502578342</v>
+      </c>
+      <c r="H95">
+        <v>0.05374747003572806</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1407497711917504</v>
+        <v>0.1839713257334152</v>
       </c>
       <c r="C98">
-        <v>-0.1097159571475591</v>
+        <v>0.04978517270379462</v>
       </c>
       <c r="D98">
-        <v>0.008951861213712999</v>
+        <v>-0.05688030606502756</v>
       </c>
       <c r="E98">
-        <v>0.06693705270124702</v>
+        <v>-0.06357919451707725</v>
       </c>
       <c r="F98">
-        <v>0.1594881500678221</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.02242165513002937</v>
+      </c>
+      <c r="G98">
+        <v>0.07631379148212022</v>
+      </c>
+      <c r="H98">
+        <v>0.3328071721327577</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.009592602137200635</v>
+        <v>0.01262201598586421</v>
       </c>
       <c r="C101">
-        <v>0.000563616098865463</v>
+        <v>-0.001123980799161804</v>
       </c>
       <c r="D101">
-        <v>-0.06569334073330779</v>
+        <v>-0.01980962937060889</v>
       </c>
       <c r="E101">
-        <v>-0.05456801706941931</v>
+        <v>0.0006728154763162007</v>
       </c>
       <c r="F101">
-        <v>0.1656986002940262</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.01282041875902331</v>
+      </c>
+      <c r="G101">
+        <v>0.1000524799411686</v>
+      </c>
+      <c r="H101">
+        <v>-0.01371460908106766</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1094996831926017</v>
+        <v>0.09717488453140219</v>
       </c>
       <c r="C102">
-        <v>-0.0574416618077772</v>
+        <v>0.0263356167096522</v>
       </c>
       <c r="D102">
-        <v>0.003727419718885626</v>
+        <v>-0.09434188077134348</v>
       </c>
       <c r="E102">
-        <v>-0.0792616907714984</v>
+        <v>0.009683604687057245</v>
       </c>
       <c r="F102">
-        <v>-0.09466645052328201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.04672665620254495</v>
+      </c>
+      <c r="G102">
+        <v>-0.06451265569696538</v>
+      </c>
+      <c r="H102">
+        <v>-0.05999753812819638</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04276897735870666</v>
+        <v>0.01343573243812242</v>
       </c>
       <c r="C103">
-        <v>-0.009460034360262251</v>
+        <v>0.00494529865283806</v>
       </c>
       <c r="D103">
-        <v>-0.01573301018760874</v>
+        <v>-0.01765336134461119</v>
       </c>
       <c r="E103">
-        <v>-0.04167258612251312</v>
+        <v>0.01297721343973343</v>
       </c>
       <c r="F103">
-        <v>-0.006369898206137526</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.00516865038824517</v>
+      </c>
+      <c r="G103">
+        <v>0.003437013136040101</v>
+      </c>
+      <c r="H103">
+        <v>-0.01221312322217295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1420335846148986</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9688236523322842</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1126052962891661</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03004793671476385</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1268241046705653</v>
+      </c>
+      <c r="G104">
+        <v>-0.004127075154507851</v>
+      </c>
+      <c r="H104">
+        <v>-0.05000593190099714</v>
       </c>
     </row>
   </sheetData>
